--- a/Code/Results/Cases/Case_0_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9989135479955019</v>
+        <v>1.028146505764195</v>
       </c>
       <c r="D2">
-        <v>1.012912133874193</v>
+        <v>1.036210191072655</v>
       </c>
       <c r="E2">
-        <v>1.005524726747412</v>
+        <v>1.028150765179679</v>
       </c>
       <c r="F2">
-        <v>1.019260728052872</v>
+        <v>1.044933865562794</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043740932036698</v>
+        <v>1.032497490467126</v>
       </c>
       <c r="J2">
-        <v>1.021126803285939</v>
+        <v>1.03330044293342</v>
       </c>
       <c r="K2">
-        <v>1.024194465984212</v>
+        <v>1.039004584774202</v>
       </c>
       <c r="L2">
-        <v>1.016907626226525</v>
+        <v>1.030968418151578</v>
       </c>
       <c r="M2">
-        <v>1.030458096572171</v>
+        <v>1.047703521851757</v>
       </c>
       <c r="N2">
-        <v>1.01095471007018</v>
+        <v>1.01510907989309</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002839533152114</v>
+        <v>1.028988062831014</v>
       </c>
       <c r="D3">
-        <v>1.016175565474272</v>
+        <v>1.03696019127108</v>
       </c>
       <c r="E3">
-        <v>1.008614376842386</v>
+        <v>1.028862626433227</v>
       </c>
       <c r="F3">
-        <v>1.022930494756681</v>
+        <v>1.045781930100127</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044448311803166</v>
+        <v>1.032587526028147</v>
       </c>
       <c r="J3">
-        <v>1.023253087809666</v>
+        <v>1.033783039078247</v>
       </c>
       <c r="K3">
-        <v>1.026605577241757</v>
+        <v>1.039564297504068</v>
       </c>
       <c r="L3">
-        <v>1.01913820899375</v>
+        <v>1.031488413737043</v>
       </c>
       <c r="M3">
-        <v>1.033278147344042</v>
+        <v>1.048362829051356</v>
       </c>
       <c r="N3">
-        <v>1.011670682377602</v>
+        <v>1.015270328852014</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005333573988633</v>
+        <v>1.0295332386819</v>
       </c>
       <c r="D4">
-        <v>1.018254026733695</v>
+        <v>1.037446386082882</v>
       </c>
       <c r="E4">
-        <v>1.010583095779693</v>
+        <v>1.029324180186136</v>
       </c>
       <c r="F4">
-        <v>1.025267275952468</v>
+        <v>1.04633168560445</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044886815136254</v>
+        <v>1.032644498079739</v>
       </c>
       <c r="J4">
-        <v>1.024601823451269</v>
+        <v>1.0340952938377</v>
       </c>
       <c r="K4">
-        <v>1.028137022702017</v>
+        <v>1.039926698513201</v>
       </c>
       <c r="L4">
-        <v>1.02055544838791</v>
+        <v>1.031825145411283</v>
       </c>
       <c r="M4">
-        <v>1.035070019452935</v>
+        <v>1.048789800276794</v>
       </c>
       <c r="N4">
-        <v>1.012124666241508</v>
+        <v>1.015374620407654</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006371317109455</v>
+        <v>1.029762580286592</v>
       </c>
       <c r="D5">
-        <v>1.019120093045932</v>
+        <v>1.037650994660433</v>
       </c>
       <c r="E5">
-        <v>1.011403654462693</v>
+        <v>1.029518438638771</v>
       </c>
       <c r="F5">
-        <v>1.026240874407125</v>
+        <v>1.046563040477852</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045066625002851</v>
+        <v>1.032668140369346</v>
       </c>
       <c r="J5">
-        <v>1.025162503575694</v>
+        <v>1.034226560296859</v>
       </c>
       <c r="K5">
-        <v>1.0287741489402</v>
+        <v>1.040079105344855</v>
       </c>
       <c r="L5">
-        <v>1.021145169995072</v>
+        <v>1.031966768181086</v>
       </c>
       <c r="M5">
-        <v>1.035815656613007</v>
+        <v>1.048969382362682</v>
       </c>
       <c r="N5">
-        <v>1.012313348189848</v>
+        <v>1.015418452770038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006544937903386</v>
+        <v>1.029801096480031</v>
       </c>
       <c r="D6">
-        <v>1.019265063234735</v>
+        <v>1.037685361734529</v>
       </c>
       <c r="E6">
-        <v>1.011541019990579</v>
+        <v>1.029551068408442</v>
       </c>
       <c r="F6">
-        <v>1.026403838282568</v>
+        <v>1.046601899857655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045096551628977</v>
+        <v>1.032672091888855</v>
       </c>
       <c r="J6">
-        <v>1.025256277735719</v>
+        <v>1.03424860015546</v>
       </c>
       <c r="K6">
-        <v>1.028880737786627</v>
+        <v>1.040104698213581</v>
       </c>
       <c r="L6">
-        <v>1.02124383455156</v>
+        <v>1.031990550790017</v>
       </c>
       <c r="M6">
-        <v>1.035940408728519</v>
+        <v>1.048999539825381</v>
       </c>
       <c r="N6">
-        <v>1.012344902803428</v>
+        <v>1.015425811710094</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005347482168083</v>
+        <v>1.029536302569598</v>
       </c>
       <c r="D7">
-        <v>1.018265629186733</v>
+        <v>1.037449119240957</v>
       </c>
       <c r="E7">
-        <v>1.010594087715346</v>
+        <v>1.029326775010035</v>
       </c>
       <c r="F7">
-        <v>1.025280319394042</v>
+        <v>1.046334776048256</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044889235508273</v>
+        <v>1.032644815203208</v>
       </c>
       <c r="J7">
-        <v>1.024609339941683</v>
+        <v>1.034097047849593</v>
       </c>
       <c r="K7">
-        <v>1.028145562082795</v>
+        <v>1.039928734772597</v>
       </c>
       <c r="L7">
-        <v>1.020563351979948</v>
+        <v>1.031827037544642</v>
       </c>
       <c r="M7">
-        <v>1.035080012544846</v>
+        <v>1.04879219953591</v>
       </c>
       <c r="N7">
-        <v>1.012127195887868</v>
+        <v>1.015375206144829</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000250156762048</v>
+        <v>1.028430782022922</v>
       </c>
       <c r="D8">
-        <v>1.014022040228144</v>
+        <v>1.036463470805937</v>
       </c>
       <c r="E8">
-        <v>1.006575330367006</v>
+        <v>1.028391147951806</v>
       </c>
       <c r="F8">
-        <v>1.020508933821842</v>
+        <v>1.04522026447443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043984013239276</v>
+        <v>1.032528184489035</v>
       </c>
       <c r="J8">
-        <v>1.02185110499166</v>
+        <v>1.033463541331342</v>
       </c>
       <c r="K8">
-        <v>1.025015365729543</v>
+        <v>1.039193693912428</v>
       </c>
       <c r="L8">
-        <v>1.017666965219081</v>
+        <v>1.031144098460199</v>
       </c>
       <c r="M8">
-        <v>1.031418083824386</v>
+        <v>1.047926263203138</v>
       </c>
       <c r="N8">
-        <v>1.011198634209941</v>
+        <v>1.015163584237835</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9908970857860944</v>
+        <v>1.026487628706017</v>
       </c>
       <c r="D9">
-        <v>1.006279296949482</v>
+        <v>1.034733566229871</v>
       </c>
       <c r="E9">
-        <v>0.9992504264135718</v>
+        <v>1.026749672649462</v>
       </c>
       <c r="F9">
-        <v>1.011799121957668</v>
+        <v>1.043264107537928</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04223866782933</v>
+        <v>1.032312838580192</v>
       </c>
       <c r="J9">
-        <v>1.016775437829486</v>
+        <v>1.032347148401942</v>
       </c>
       <c r="K9">
-        <v>1.01927131187976</v>
+        <v>1.03790028081943</v>
       </c>
       <c r="L9">
-        <v>1.012355676644102</v>
+        <v>1.029942724434432</v>
       </c>
       <c r="M9">
-        <v>1.024703623897309</v>
+        <v>1.046403169537221</v>
       </c>
       <c r="N9">
-        <v>1.009488673785755</v>
+        <v>1.014790338458625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.984388640608862</v>
+        <v>1.025195596822348</v>
       </c>
       <c r="D10">
-        <v>1.000923526805094</v>
+        <v>1.033585070293824</v>
       </c>
       <c r="E10">
-        <v>0.9941891534934777</v>
+        <v>1.025660319844918</v>
       </c>
       <c r="F10">
-        <v>1.00577118078956</v>
+        <v>1.041965335672788</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040969604528487</v>
+        <v>1.032162706183009</v>
       </c>
       <c r="J10">
-        <v>1.013235637085407</v>
+        <v>1.031602915709465</v>
       </c>
       <c r="K10">
-        <v>1.015276126686667</v>
+        <v>1.037039319374615</v>
       </c>
       <c r="L10">
-        <v>1.008664123194649</v>
+        <v>1.029143272256776</v>
       </c>
       <c r="M10">
-        <v>1.020037010777797</v>
+        <v>1.045389755328862</v>
       </c>
       <c r="N10">
-        <v>1.008295450807657</v>
+        <v>1.014541307494185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9814999933315427</v>
+        <v>1.024636960868446</v>
       </c>
       <c r="D11">
-        <v>0.9985546724904651</v>
+        <v>1.033088914783689</v>
       </c>
       <c r="E11">
-        <v>0.991951929162917</v>
+        <v>1.025189818802213</v>
       </c>
       <c r="F11">
-        <v>1.003104145674271</v>
+        <v>1.041404243073465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040393984502788</v>
+        <v>1.03209614748237</v>
       </c>
       <c r="J11">
-        <v>1.011663173354646</v>
+        <v>1.031280678271749</v>
       </c>
       <c r="K11">
-        <v>1.013503897140591</v>
+        <v>1.036666843871825</v>
       </c>
       <c r="L11">
-        <v>1.00702723320747</v>
+        <v>1.028797465634837</v>
       </c>
       <c r="M11">
-        <v>1.017967758822737</v>
+        <v>1.044951427145161</v>
       </c>
       <c r="N11">
-        <v>1.007765262755041</v>
+        <v>1.014433432867183</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9804159231041202</v>
+        <v>1.024429583823757</v>
       </c>
       <c r="D12">
-        <v>0.9976669576891037</v>
+        <v>1.032904795349243</v>
       </c>
       <c r="E12">
-        <v>0.9911137551746438</v>
+        <v>1.025015235334995</v>
       </c>
       <c r="F12">
-        <v>1.00210454723079</v>
+        <v>1.041196023267495</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040176152763769</v>
+        <v>1.032071192336116</v>
       </c>
       <c r="J12">
-        <v>1.01107288100535</v>
+        <v>1.031160989313671</v>
       </c>
       <c r="K12">
-        <v>1.01283899202076</v>
+        <v>1.036528540441229</v>
       </c>
       <c r="L12">
-        <v>1.006413205071385</v>
+        <v>1.028669073399225</v>
       </c>
       <c r="M12">
-        <v>1.017191538202828</v>
+        <v>1.044788687409395</v>
       </c>
       <c r="N12">
-        <v>1.007566216972367</v>
+        <v>1.014393357519652</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9806489706515392</v>
+        <v>1.024474061210421</v>
       </c>
       <c r="D13">
-        <v>0.9978577349166575</v>
+        <v>1.032944281651502</v>
       </c>
       <c r="E13">
-        <v>0.9912938759237673</v>
+        <v>1.025052675834534</v>
       </c>
       <c r="F13">
-        <v>1.002319375758471</v>
+        <v>1.041240678267339</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040223062009766</v>
+        <v>1.032076555800539</v>
       </c>
       <c r="J13">
-        <v>1.011199785774145</v>
+        <v>1.031186662782119</v>
       </c>
       <c r="K13">
-        <v>1.012981920456695</v>
+        <v>1.03655820468467</v>
       </c>
       <c r="L13">
-        <v>1.006545192385288</v>
+        <v>1.028696611424144</v>
       </c>
       <c r="M13">
-        <v>1.017358389627171</v>
+        <v>1.044823592219536</v>
       </c>
       <c r="N13">
-        <v>1.007609009800211</v>
+        <v>1.014401954077243</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.981410613225671</v>
+        <v>1.024619816453089</v>
       </c>
       <c r="D14">
-        <v>0.9984814551987875</v>
+        <v>1.033073691836581</v>
       </c>
       <c r="E14">
-        <v>0.9918827935401137</v>
+        <v>1.025175383963435</v>
       </c>
       <c r="F14">
-        <v>1.003021703347672</v>
+        <v>1.041387027570303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040376061077539</v>
+        <v>1.032094089416925</v>
       </c>
       <c r="J14">
-        <v>1.011614507732652</v>
+        <v>1.031270784648193</v>
       </c>
       <c r="K14">
-        <v>1.013449072522205</v>
+        <v>1.036655410627088</v>
       </c>
       <c r="L14">
-        <v>1.006976601586608</v>
+        <v>1.028786851547184</v>
       </c>
       <c r="M14">
-        <v>1.017903753246492</v>
+        <v>1.04493797349058</v>
       </c>
       <c r="N14">
-        <v>1.007748853097215</v>
+        <v>1.01443012034415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9818783998627817</v>
+        <v>1.024709637711711</v>
       </c>
       <c r="D15">
-        <v>0.9988647035705913</v>
+        <v>1.033153448944463</v>
       </c>
       <c r="E15">
-        <v>0.992244685578721</v>
+        <v>1.025251012607897</v>
       </c>
       <c r="F15">
-        <v>1.003453233357558</v>
+        <v>1.041477224101962</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040469793007095</v>
+        <v>1.032104861696472</v>
       </c>
       <c r="J15">
-        <v>1.011869201293834</v>
+        <v>1.031322615525752</v>
       </c>
       <c r="K15">
-        <v>1.013736014852485</v>
+        <v>1.036715309160525</v>
       </c>
       <c r="L15">
-        <v>1.007241602616819</v>
+        <v>1.028842458894465</v>
       </c>
       <c r="M15">
-        <v>1.018238752024766</v>
+        <v>1.04500845753904</v>
       </c>
       <c r="N15">
-        <v>1.007834733059465</v>
+        <v>1.014447473742542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9845788231826694</v>
+        <v>1.025232689119727</v>
       </c>
       <c r="D16">
-        <v>1.001079662719545</v>
+        <v>1.033618022910909</v>
       </c>
       <c r="E16">
-        <v>0.9943366426860524</v>
+        <v>1.025691570808016</v>
       </c>
       <c r="F16">
-        <v>1.005946951184684</v>
+        <v>1.042002600770643</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041007248209224</v>
+        <v>1.03216709085513</v>
       </c>
       <c r="J16">
-        <v>1.013339139257858</v>
+        <v>1.031624302087092</v>
       </c>
       <c r="K16">
-        <v>1.01539283033227</v>
+        <v>1.037064046354155</v>
       </c>
       <c r="L16">
-        <v>1.008771928346002</v>
+        <v>1.029166230041391</v>
       </c>
       <c r="M16">
-        <v>1.020173290672008</v>
+        <v>1.045418856131452</v>
       </c>
       <c r="N16">
-        <v>1.008330346188934</v>
+        <v>1.014548465922596</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9862535131883502</v>
+        <v>1.02556100680022</v>
       </c>
       <c r="D17">
-        <v>1.002455489412382</v>
+        <v>1.033909747344482</v>
       </c>
       <c r="E17">
-        <v>0.9956364346123904</v>
+        <v>1.025968242846734</v>
       </c>
       <c r="F17">
-        <v>1.007495689817107</v>
+        <v>1.042332500923953</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041337322294996</v>
+        <v>1.032205710936871</v>
       </c>
       <c r="J17">
-        <v>1.014250394151439</v>
+        <v>1.031813548454886</v>
       </c>
       <c r="K17">
-        <v>1.01642060155002</v>
+        <v>1.037282888454033</v>
       </c>
       <c r="L17">
-        <v>1.00972140797144</v>
+        <v>1.029369420912666</v>
       </c>
       <c r="M17">
-        <v>1.02137355660128</v>
+        <v>1.045676419887996</v>
       </c>
       <c r="N17">
-        <v>1.008637557986534</v>
+        <v>1.014611804595261</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9872235706661893</v>
+        <v>1.02575258818401</v>
       </c>
       <c r="D18">
-        <v>1.003253207613356</v>
+        <v>1.034080016178905</v>
       </c>
       <c r="E18">
-        <v>0.9963901975285536</v>
+        <v>1.026129736226913</v>
       </c>
       <c r="F18">
-        <v>1.008393580944606</v>
+        <v>1.042525049871188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041527336916058</v>
+        <v>1.032228087744415</v>
       </c>
       <c r="J18">
-        <v>1.01477809979325</v>
+        <v>1.031923934521779</v>
       </c>
       <c r="K18">
-        <v>1.017016021744381</v>
+        <v>1.037410566748487</v>
       </c>
       <c r="L18">
-        <v>1.010271533146135</v>
+        <v>1.029487973488177</v>
       </c>
       <c r="M18">
-        <v>1.022068986217273</v>
+        <v>1.045826699328537</v>
       </c>
       <c r="N18">
-        <v>1.008815451101744</v>
+        <v>1.014648744830712</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9875532035473775</v>
+        <v>1.025817925873955</v>
       </c>
       <c r="D19">
-        <v>1.003524408429435</v>
+        <v>1.03413809220485</v>
       </c>
       <c r="E19">
-        <v>0.9966464767629711</v>
+        <v>1.026184820788689</v>
       </c>
       <c r="F19">
-        <v>1.008698823804957</v>
+        <v>1.042590725017837</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041591703806023</v>
+        <v>1.032235692257566</v>
       </c>
       <c r="J19">
-        <v>1.014957394047106</v>
+        <v>1.031961573593232</v>
       </c>
       <c r="K19">
-        <v>1.017218363619998</v>
+        <v>1.037454107027597</v>
       </c>
       <c r="L19">
-        <v>1.010458492802227</v>
+        <v>1.029528402707953</v>
       </c>
       <c r="M19">
-        <v>1.022305327575361</v>
+        <v>1.045877948629844</v>
       </c>
       <c r="N19">
-        <v>1.008875890188694</v>
+        <v>1.014661339779169</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9860745377260483</v>
+        <v>1.02552577321253</v>
       </c>
       <c r="D20">
-        <v>1.002308372856509</v>
+        <v>1.033878436588052</v>
       </c>
       <c r="E20">
-        <v>0.9954974348506536</v>
+        <v>1.025938546619712</v>
       </c>
       <c r="F20">
-        <v>1.007330092553042</v>
+        <v>1.042297092942938</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041302168991711</v>
+        <v>1.032201582840153</v>
       </c>
       <c r="J20">
-        <v>1.014153021334717</v>
+        <v>1.031793243908367</v>
       </c>
       <c r="K20">
-        <v>1.016310753391974</v>
+        <v>1.037259405509095</v>
       </c>
       <c r="L20">
-        <v>1.009619921194139</v>
+        <v>1.02934761684753</v>
       </c>
       <c r="M20">
-        <v>1.021245264154404</v>
+        <v>1.045648780875195</v>
       </c>
       <c r="N20">
-        <v>1.008604731923197</v>
+        <v>1.014605009379881</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9811866391144225</v>
+        <v>1.024576891696824</v>
       </c>
       <c r="D21">
-        <v>0.9982980037263838</v>
+        <v>1.033035578921446</v>
       </c>
       <c r="E21">
-        <v>0.9917095724590528</v>
+        <v>1.025139244450475</v>
       </c>
       <c r="F21">
-        <v>1.002815135526951</v>
+        <v>1.041343925949842</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040331118481181</v>
+        <v>1.032088932610823</v>
       </c>
       <c r="J21">
-        <v>1.011492555889413</v>
+        <v>1.031246012723859</v>
       </c>
       <c r="K21">
-        <v>1.013311692851579</v>
+        <v>1.036626784492174</v>
       </c>
       <c r="L21">
-        <v>1.006849730364709</v>
+        <v>1.028760276529867</v>
       </c>
       <c r="M21">
-        <v>1.017743369859321</v>
+        <v>1.044904288976567</v>
       </c>
       <c r="N21">
-        <v>1.007707731652576</v>
+        <v>1.014421826239739</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9780489361323715</v>
+        <v>1.023981017550297</v>
       </c>
       <c r="D22">
-        <v>0.9957311174745074</v>
+        <v>1.032506653217384</v>
       </c>
       <c r="E22">
-        <v>0.9892863479069969</v>
+        <v>1.024637742892473</v>
       </c>
       <c r="F22">
-        <v>0.9999244502614834</v>
+        <v>1.040745761061337</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039697264024787</v>
+        <v>1.032016761352814</v>
       </c>
       <c r="J22">
-        <v>1.009783759305678</v>
+        <v>1.030901972725047</v>
       </c>
       <c r="K22">
-        <v>1.0113876187709</v>
+        <v>1.03622932379378</v>
       </c>
       <c r="L22">
-        <v>1.005073074551018</v>
+        <v>1.028391315570527</v>
       </c>
       <c r="M22">
-        <v>1.015497403955527</v>
+        <v>1.044436631388355</v>
       </c>
       <c r="N22">
-        <v>1.007131499216713</v>
+        <v>1.014306617788937</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9797185843207197</v>
+        <v>1.024296832399335</v>
       </c>
       <c r="D23">
-        <v>0.9970962949821089</v>
+        <v>1.032786950140576</v>
       </c>
       <c r="E23">
-        <v>0.9905750004540333</v>
+        <v>1.024903498059943</v>
       </c>
       <c r="F23">
-        <v>1.00146191944059</v>
+        <v>1.041062751888515</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040035526859005</v>
+        <v>1.032055147842906</v>
       </c>
       <c r="J23">
-        <v>1.010693127603863</v>
+        <v>1.031084351931012</v>
       </c>
       <c r="K23">
-        <v>1.012411344219624</v>
+        <v>1.03643999693176</v>
       </c>
       <c r="L23">
-        <v>1.006018308449119</v>
+        <v>1.028586877639803</v>
       </c>
       <c r="M23">
-        <v>1.016692329512128</v>
+        <v>1.044684503809028</v>
       </c>
       <c r="N23">
-        <v>1.0074381602733</v>
+        <v>1.014367695022637</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9861554298896277</v>
+        <v>1.025541693509567</v>
       </c>
       <c r="D24">
-        <v>1.002374863237635</v>
+        <v>1.033892584228685</v>
       </c>
       <c r="E24">
-        <v>0.9955602563849366</v>
+        <v>1.025951964710553</v>
       </c>
       <c r="F24">
-        <v>1.00740493567949</v>
+        <v>1.042313091903269</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041318061012057</v>
+        <v>1.032203448611787</v>
       </c>
       <c r="J24">
-        <v>1.014197031687969</v>
+        <v>1.03180241865335</v>
       </c>
       <c r="K24">
-        <v>1.016360401578063</v>
+        <v>1.037270016344267</v>
       </c>
       <c r="L24">
-        <v>1.009665790087063</v>
+        <v>1.029357469058743</v>
       </c>
       <c r="M24">
-        <v>1.021303248383621</v>
+        <v>1.0456612696108</v>
       </c>
       <c r="N24">
-        <v>1.008619568614765</v>
+        <v>1.01460807985807</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9933613920586376</v>
+        <v>1.026989387756291</v>
       </c>
       <c r="D25">
-        <v>1.008313958159247</v>
+        <v>1.035179954797975</v>
       </c>
       <c r="E25">
-        <v>1.001174362747381</v>
+        <v>1.027173166480893</v>
       </c>
       <c r="F25">
-        <v>1.014088436789036</v>
+        <v>1.043768889758629</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042708130819823</v>
+        <v>1.032369671262171</v>
       </c>
       <c r="J25">
-        <v>1.018114256070784</v>
+        <v>1.032635763335673</v>
       </c>
       <c r="K25">
-        <v>1.020784567182169</v>
+        <v>1.038234433983243</v>
       </c>
       <c r="L25">
-        <v>1.013754475560348</v>
+        <v>1.030253056570069</v>
       </c>
       <c r="M25">
-        <v>1.026471914898816</v>
+        <v>1.046796583898486</v>
       </c>
       <c r="N25">
-        <v>1.009939842392483</v>
+        <v>1.01488686887458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028146505764195</v>
+        <v>0.998913547995502</v>
       </c>
       <c r="D2">
-        <v>1.036210191072655</v>
+        <v>1.012912133874193</v>
       </c>
       <c r="E2">
-        <v>1.028150765179679</v>
+        <v>1.005524726747413</v>
       </c>
       <c r="F2">
-        <v>1.044933865562794</v>
+        <v>1.019260728052872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032497490467126</v>
+        <v>1.043740932036698</v>
       </c>
       <c r="J2">
-        <v>1.03330044293342</v>
+        <v>1.021126803285939</v>
       </c>
       <c r="K2">
-        <v>1.039004584774202</v>
+        <v>1.024194465984212</v>
       </c>
       <c r="L2">
-        <v>1.030968418151578</v>
+        <v>1.016907626226525</v>
       </c>
       <c r="M2">
-        <v>1.047703521851757</v>
+        <v>1.030458096572171</v>
       </c>
       <c r="N2">
-        <v>1.01510907989309</v>
+        <v>1.01095471007018</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028988062831014</v>
+        <v>1.002839533152114</v>
       </c>
       <c r="D3">
-        <v>1.03696019127108</v>
+        <v>1.016175565474272</v>
       </c>
       <c r="E3">
-        <v>1.028862626433227</v>
+        <v>1.008614376842387</v>
       </c>
       <c r="F3">
-        <v>1.045781930100127</v>
+        <v>1.022930494756682</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032587526028147</v>
+        <v>1.044448311803166</v>
       </c>
       <c r="J3">
-        <v>1.033783039078247</v>
+        <v>1.023253087809666</v>
       </c>
       <c r="K3">
-        <v>1.039564297504068</v>
+        <v>1.026605577241757</v>
       </c>
       <c r="L3">
-        <v>1.031488413737043</v>
+        <v>1.01913820899375</v>
       </c>
       <c r="M3">
-        <v>1.048362829051356</v>
+        <v>1.033278147344042</v>
       </c>
       <c r="N3">
-        <v>1.015270328852014</v>
+        <v>1.011670682377602</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0295332386819</v>
+        <v>1.005333573988633</v>
       </c>
       <c r="D4">
-        <v>1.037446386082882</v>
+        <v>1.018254026733694</v>
       </c>
       <c r="E4">
-        <v>1.029324180186136</v>
+        <v>1.010583095779692</v>
       </c>
       <c r="F4">
-        <v>1.04633168560445</v>
+        <v>1.025267275952467</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032644498079739</v>
+        <v>1.044886815136254</v>
       </c>
       <c r="J4">
-        <v>1.0340952938377</v>
+        <v>1.024601823451269</v>
       </c>
       <c r="K4">
-        <v>1.039926698513201</v>
+        <v>1.028137022702017</v>
       </c>
       <c r="L4">
-        <v>1.031825145411283</v>
+        <v>1.02055544838791</v>
       </c>
       <c r="M4">
-        <v>1.048789800276794</v>
+        <v>1.035070019452934</v>
       </c>
       <c r="N4">
-        <v>1.015374620407654</v>
+        <v>1.012124666241508</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029762580286592</v>
+        <v>1.006371317109455</v>
       </c>
       <c r="D5">
-        <v>1.037650994660433</v>
+        <v>1.019120093045933</v>
       </c>
       <c r="E5">
-        <v>1.029518438638771</v>
+        <v>1.011403654462693</v>
       </c>
       <c r="F5">
-        <v>1.046563040477852</v>
+        <v>1.026240874407125</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032668140369346</v>
+        <v>1.045066625002852</v>
       </c>
       <c r="J5">
-        <v>1.034226560296859</v>
+        <v>1.025162503575694</v>
       </c>
       <c r="K5">
-        <v>1.040079105344855</v>
+        <v>1.028774148940201</v>
       </c>
       <c r="L5">
-        <v>1.031966768181086</v>
+        <v>1.021145169995072</v>
       </c>
       <c r="M5">
-        <v>1.048969382362682</v>
+        <v>1.035815656613007</v>
       </c>
       <c r="N5">
-        <v>1.015418452770038</v>
+        <v>1.012313348189848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029801096480031</v>
+        <v>1.006544937903386</v>
       </c>
       <c r="D6">
-        <v>1.037685361734529</v>
+        <v>1.019265063234736</v>
       </c>
       <c r="E6">
-        <v>1.029551068408442</v>
+        <v>1.011541019990579</v>
       </c>
       <c r="F6">
-        <v>1.046601899857655</v>
+        <v>1.026403838282569</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032672091888855</v>
+        <v>1.045096551628977</v>
       </c>
       <c r="J6">
-        <v>1.03424860015546</v>
+        <v>1.025256277735719</v>
       </c>
       <c r="K6">
-        <v>1.040104698213581</v>
+        <v>1.028880737786628</v>
       </c>
       <c r="L6">
-        <v>1.031990550790017</v>
+        <v>1.021243834551561</v>
       </c>
       <c r="M6">
-        <v>1.048999539825381</v>
+        <v>1.035940408728519</v>
       </c>
       <c r="N6">
-        <v>1.015425811710094</v>
+        <v>1.012344902803428</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029536302569598</v>
+        <v>1.005347482168083</v>
       </c>
       <c r="D7">
-        <v>1.037449119240957</v>
+        <v>1.018265629186733</v>
       </c>
       <c r="E7">
-        <v>1.029326775010035</v>
+        <v>1.010594087715346</v>
       </c>
       <c r="F7">
-        <v>1.046334776048256</v>
+        <v>1.025280319394042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032644815203208</v>
+        <v>1.044889235508273</v>
       </c>
       <c r="J7">
-        <v>1.034097047849593</v>
+        <v>1.024609339941683</v>
       </c>
       <c r="K7">
-        <v>1.039928734772597</v>
+        <v>1.028145562082795</v>
       </c>
       <c r="L7">
-        <v>1.031827037544642</v>
+        <v>1.020563351979948</v>
       </c>
       <c r="M7">
-        <v>1.04879219953591</v>
+        <v>1.035080012544846</v>
       </c>
       <c r="N7">
-        <v>1.015375206144829</v>
+        <v>1.012127195887868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028430782022922</v>
+        <v>1.000250156762048</v>
       </c>
       <c r="D8">
-        <v>1.036463470805937</v>
+        <v>1.014022040228144</v>
       </c>
       <c r="E8">
-        <v>1.028391147951806</v>
+        <v>1.006575330367006</v>
       </c>
       <c r="F8">
-        <v>1.04522026447443</v>
+        <v>1.020508933821841</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032528184489035</v>
+        <v>1.043984013239276</v>
       </c>
       <c r="J8">
-        <v>1.033463541331342</v>
+        <v>1.021851104991659</v>
       </c>
       <c r="K8">
-        <v>1.039193693912428</v>
+        <v>1.025015365729543</v>
       </c>
       <c r="L8">
-        <v>1.031144098460199</v>
+        <v>1.01766696521908</v>
       </c>
       <c r="M8">
-        <v>1.047926263203138</v>
+        <v>1.031418083824386</v>
       </c>
       <c r="N8">
-        <v>1.015163584237835</v>
+        <v>1.011198634209941</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026487628706017</v>
+        <v>0.9908970857860939</v>
       </c>
       <c r="D9">
-        <v>1.034733566229871</v>
+        <v>1.006279296949482</v>
       </c>
       <c r="E9">
-        <v>1.026749672649462</v>
+        <v>0.9992504264135713</v>
       </c>
       <c r="F9">
-        <v>1.043264107537928</v>
+        <v>1.011799121957668</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032312838580192</v>
+        <v>1.04223866782933</v>
       </c>
       <c r="J9">
-        <v>1.032347148401942</v>
+        <v>1.016775437829486</v>
       </c>
       <c r="K9">
-        <v>1.03790028081943</v>
+        <v>1.01927131187976</v>
       </c>
       <c r="L9">
-        <v>1.029942724434432</v>
+        <v>1.012355676644101</v>
       </c>
       <c r="M9">
-        <v>1.046403169537221</v>
+        <v>1.024703623897309</v>
       </c>
       <c r="N9">
-        <v>1.014790338458625</v>
+        <v>1.009488673785755</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025195596822348</v>
+        <v>0.9843886406088619</v>
       </c>
       <c r="D10">
-        <v>1.033585070293824</v>
+        <v>1.000923526805094</v>
       </c>
       <c r="E10">
-        <v>1.025660319844918</v>
+        <v>0.9941891534934777</v>
       </c>
       <c r="F10">
-        <v>1.041965335672788</v>
+        <v>1.005771180789559</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032162706183009</v>
+        <v>1.040969604528487</v>
       </c>
       <c r="J10">
-        <v>1.031602915709465</v>
+        <v>1.013235637085407</v>
       </c>
       <c r="K10">
-        <v>1.037039319374615</v>
+        <v>1.015276126686667</v>
       </c>
       <c r="L10">
-        <v>1.029143272256776</v>
+        <v>1.008664123194649</v>
       </c>
       <c r="M10">
-        <v>1.045389755328862</v>
+        <v>1.020037010777797</v>
       </c>
       <c r="N10">
-        <v>1.014541307494185</v>
+        <v>1.008295450807657</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024636960868446</v>
+        <v>0.9814999933315429</v>
       </c>
       <c r="D11">
-        <v>1.033088914783689</v>
+        <v>0.9985546724904654</v>
       </c>
       <c r="E11">
-        <v>1.025189818802213</v>
+        <v>0.9919519291629174</v>
       </c>
       <c r="F11">
-        <v>1.041404243073465</v>
+        <v>1.003104145674271</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03209614748237</v>
+        <v>1.040393984502788</v>
       </c>
       <c r="J11">
-        <v>1.031280678271749</v>
+        <v>1.011663173354646</v>
       </c>
       <c r="K11">
-        <v>1.036666843871825</v>
+        <v>1.013503897140591</v>
       </c>
       <c r="L11">
-        <v>1.028797465634837</v>
+        <v>1.007027233207471</v>
       </c>
       <c r="M11">
-        <v>1.044951427145161</v>
+        <v>1.017967758822737</v>
       </c>
       <c r="N11">
-        <v>1.014433432867183</v>
+        <v>1.007765262755041</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.024429583823757</v>
+        <v>0.98041592310412</v>
       </c>
       <c r="D12">
-        <v>1.032904795349243</v>
+        <v>0.9976669576891039</v>
       </c>
       <c r="E12">
-        <v>1.025015235334995</v>
+        <v>0.9911137551746435</v>
       </c>
       <c r="F12">
-        <v>1.041196023267495</v>
+        <v>1.00210454723079</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032071192336116</v>
+        <v>1.040176152763769</v>
       </c>
       <c r="J12">
-        <v>1.031160989313671</v>
+        <v>1.01107288100535</v>
       </c>
       <c r="K12">
-        <v>1.036528540441229</v>
+        <v>1.01283899202076</v>
       </c>
       <c r="L12">
-        <v>1.028669073399225</v>
+        <v>1.006413205071385</v>
       </c>
       <c r="M12">
-        <v>1.044788687409395</v>
+        <v>1.017191538202828</v>
       </c>
       <c r="N12">
-        <v>1.014393357519652</v>
+        <v>1.007566216972367</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024474061210421</v>
+        <v>0.9806489706515392</v>
       </c>
       <c r="D13">
-        <v>1.032944281651502</v>
+        <v>0.9978577349166574</v>
       </c>
       <c r="E13">
-        <v>1.025052675834534</v>
+        <v>0.9912938759237671</v>
       </c>
       <c r="F13">
-        <v>1.041240678267339</v>
+        <v>1.002319375758471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032076555800539</v>
+        <v>1.040223062009765</v>
       </c>
       <c r="J13">
-        <v>1.031186662782119</v>
+        <v>1.011199785774145</v>
       </c>
       <c r="K13">
-        <v>1.03655820468467</v>
+        <v>1.012981920456695</v>
       </c>
       <c r="L13">
-        <v>1.028696611424144</v>
+        <v>1.006545192385288</v>
       </c>
       <c r="M13">
-        <v>1.044823592219536</v>
+        <v>1.017358389627171</v>
       </c>
       <c r="N13">
-        <v>1.014401954077243</v>
+        <v>1.007609009800211</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024619816453089</v>
+        <v>0.9814106132256708</v>
       </c>
       <c r="D14">
-        <v>1.033073691836581</v>
+        <v>0.9984814551987875</v>
       </c>
       <c r="E14">
-        <v>1.025175383963435</v>
+        <v>0.9918827935401134</v>
       </c>
       <c r="F14">
-        <v>1.041387027570303</v>
+        <v>1.003021703347672</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032094089416925</v>
+        <v>1.040376061077539</v>
       </c>
       <c r="J14">
-        <v>1.031270784648193</v>
+        <v>1.011614507732651</v>
       </c>
       <c r="K14">
-        <v>1.036655410627088</v>
+        <v>1.013449072522205</v>
       </c>
       <c r="L14">
-        <v>1.028786851547184</v>
+        <v>1.006976601586608</v>
       </c>
       <c r="M14">
-        <v>1.04493797349058</v>
+        <v>1.017903753246491</v>
       </c>
       <c r="N14">
-        <v>1.01443012034415</v>
+        <v>1.007748853097214</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024709637711711</v>
+        <v>0.9818783998627809</v>
       </c>
       <c r="D15">
-        <v>1.033153448944463</v>
+        <v>0.9988647035705909</v>
       </c>
       <c r="E15">
-        <v>1.025251012607897</v>
+        <v>0.9922446855787201</v>
       </c>
       <c r="F15">
-        <v>1.041477224101962</v>
+        <v>1.003453233357558</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032104861696472</v>
+        <v>1.040469793007095</v>
       </c>
       <c r="J15">
-        <v>1.031322615525752</v>
+        <v>1.011869201293833</v>
       </c>
       <c r="K15">
-        <v>1.036715309160525</v>
+        <v>1.013736014852485</v>
       </c>
       <c r="L15">
-        <v>1.028842458894465</v>
+        <v>1.007241602616818</v>
       </c>
       <c r="M15">
-        <v>1.04500845753904</v>
+        <v>1.018238752024766</v>
       </c>
       <c r="N15">
-        <v>1.014447473742542</v>
+        <v>1.007834733059465</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025232689119727</v>
+        <v>0.9845788231826696</v>
       </c>
       <c r="D16">
-        <v>1.033618022910909</v>
+        <v>1.001079662719545</v>
       </c>
       <c r="E16">
-        <v>1.025691570808016</v>
+        <v>0.9943366426860523</v>
       </c>
       <c r="F16">
-        <v>1.042002600770643</v>
+        <v>1.005946951184684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03216709085513</v>
+        <v>1.041007248209224</v>
       </c>
       <c r="J16">
-        <v>1.031624302087092</v>
+        <v>1.013339139257858</v>
       </c>
       <c r="K16">
-        <v>1.037064046354155</v>
+        <v>1.01539283033227</v>
       </c>
       <c r="L16">
-        <v>1.029166230041391</v>
+        <v>1.008771928346002</v>
       </c>
       <c r="M16">
-        <v>1.045418856131452</v>
+        <v>1.020173290672008</v>
       </c>
       <c r="N16">
-        <v>1.014548465922596</v>
+        <v>1.008330346188934</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02556100680022</v>
+        <v>0.9862535131883495</v>
       </c>
       <c r="D17">
-        <v>1.033909747344482</v>
+        <v>1.002455489412381</v>
       </c>
       <c r="E17">
-        <v>1.025968242846734</v>
+        <v>0.9956364346123899</v>
       </c>
       <c r="F17">
-        <v>1.042332500923953</v>
+        <v>1.007495689817106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032205710936871</v>
+        <v>1.041337322294995</v>
       </c>
       <c r="J17">
-        <v>1.031813548454886</v>
+        <v>1.014250394151438</v>
       </c>
       <c r="K17">
-        <v>1.037282888454033</v>
+        <v>1.016420601550019</v>
       </c>
       <c r="L17">
-        <v>1.029369420912666</v>
+        <v>1.00972140797144</v>
       </c>
       <c r="M17">
-        <v>1.045676419887996</v>
+        <v>1.02137355660128</v>
       </c>
       <c r="N17">
-        <v>1.014611804595261</v>
+        <v>1.008637557986534</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02575258818401</v>
+        <v>0.9872235706661889</v>
       </c>
       <c r="D18">
-        <v>1.034080016178905</v>
+        <v>1.003253207613356</v>
       </c>
       <c r="E18">
-        <v>1.026129736226913</v>
+        <v>0.9963901975285534</v>
       </c>
       <c r="F18">
-        <v>1.042525049871188</v>
+        <v>1.008393580944605</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032228087744415</v>
+        <v>1.041527336916057</v>
       </c>
       <c r="J18">
-        <v>1.031923934521779</v>
+        <v>1.01477809979325</v>
       </c>
       <c r="K18">
-        <v>1.037410566748487</v>
+        <v>1.017016021744381</v>
       </c>
       <c r="L18">
-        <v>1.029487973488177</v>
+        <v>1.010271533146134</v>
       </c>
       <c r="M18">
-        <v>1.045826699328537</v>
+        <v>1.022068986217273</v>
       </c>
       <c r="N18">
-        <v>1.014648744830712</v>
+        <v>1.008815451101744</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025817925873955</v>
+        <v>0.9875532035473775</v>
       </c>
       <c r="D19">
-        <v>1.03413809220485</v>
+        <v>1.003524408429435</v>
       </c>
       <c r="E19">
-        <v>1.026184820788689</v>
+        <v>0.996646476762971</v>
       </c>
       <c r="F19">
-        <v>1.042590725017837</v>
+        <v>1.008698823804957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032235692257566</v>
+        <v>1.041591703806023</v>
       </c>
       <c r="J19">
-        <v>1.031961573593232</v>
+        <v>1.014957394047105</v>
       </c>
       <c r="K19">
-        <v>1.037454107027597</v>
+        <v>1.017218363619998</v>
       </c>
       <c r="L19">
-        <v>1.029528402707953</v>
+        <v>1.010458492802227</v>
       </c>
       <c r="M19">
-        <v>1.045877948629844</v>
+        <v>1.022305327575361</v>
       </c>
       <c r="N19">
-        <v>1.014661339779169</v>
+        <v>1.008875890188694</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02552577321253</v>
+        <v>0.9860745377260488</v>
       </c>
       <c r="D20">
-        <v>1.033878436588052</v>
+        <v>1.002308372856509</v>
       </c>
       <c r="E20">
-        <v>1.025938546619712</v>
+        <v>0.9954974348506538</v>
       </c>
       <c r="F20">
-        <v>1.042297092942938</v>
+        <v>1.007330092553043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032201582840153</v>
+        <v>1.041302168991711</v>
       </c>
       <c r="J20">
-        <v>1.031793243908367</v>
+        <v>1.014153021334717</v>
       </c>
       <c r="K20">
-        <v>1.037259405509095</v>
+        <v>1.016310753391974</v>
       </c>
       <c r="L20">
-        <v>1.02934761684753</v>
+        <v>1.009619921194139</v>
       </c>
       <c r="M20">
-        <v>1.045648780875195</v>
+        <v>1.021245264154404</v>
       </c>
       <c r="N20">
-        <v>1.014605009379881</v>
+        <v>1.008604731923197</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024576891696824</v>
+        <v>0.9811866391144221</v>
       </c>
       <c r="D21">
-        <v>1.033035578921446</v>
+        <v>0.9982980037263831</v>
       </c>
       <c r="E21">
-        <v>1.025139244450475</v>
+        <v>0.9917095724590526</v>
       </c>
       <c r="F21">
-        <v>1.041343925949842</v>
+        <v>1.002815135526951</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032088932610823</v>
+        <v>1.040331118481181</v>
       </c>
       <c r="J21">
-        <v>1.031246012723859</v>
+        <v>1.011492555889413</v>
       </c>
       <c r="K21">
-        <v>1.036626784492174</v>
+        <v>1.013311692851578</v>
       </c>
       <c r="L21">
-        <v>1.028760276529867</v>
+        <v>1.006849730364709</v>
       </c>
       <c r="M21">
-        <v>1.044904288976567</v>
+        <v>1.017743369859321</v>
       </c>
       <c r="N21">
-        <v>1.014421826239739</v>
+        <v>1.007707731652576</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023981017550297</v>
+        <v>0.9780489361323714</v>
       </c>
       <c r="D22">
-        <v>1.032506653217384</v>
+        <v>0.9957311174745072</v>
       </c>
       <c r="E22">
-        <v>1.024637742892473</v>
+        <v>0.9892863479069962</v>
       </c>
       <c r="F22">
-        <v>1.040745761061337</v>
+        <v>0.9999244502614834</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032016761352814</v>
+        <v>1.039697264024787</v>
       </c>
       <c r="J22">
-        <v>1.030901972725047</v>
+        <v>1.009783759305678</v>
       </c>
       <c r="K22">
-        <v>1.03622932379378</v>
+        <v>1.0113876187709</v>
       </c>
       <c r="L22">
-        <v>1.028391315570527</v>
+        <v>1.005073074551017</v>
       </c>
       <c r="M22">
-        <v>1.044436631388355</v>
+        <v>1.015497403955527</v>
       </c>
       <c r="N22">
-        <v>1.014306617788937</v>
+        <v>1.007131499216713</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024296832399335</v>
+        <v>0.979718584320719</v>
       </c>
       <c r="D23">
-        <v>1.032786950140576</v>
+        <v>0.9970962949821084</v>
       </c>
       <c r="E23">
-        <v>1.024903498059943</v>
+        <v>0.9905750004540326</v>
       </c>
       <c r="F23">
-        <v>1.041062751888515</v>
+        <v>1.00146191944059</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032055147842906</v>
+        <v>1.040035526859004</v>
       </c>
       <c r="J23">
-        <v>1.031084351931012</v>
+        <v>1.010693127603862</v>
       </c>
       <c r="K23">
-        <v>1.03643999693176</v>
+        <v>1.012411344219623</v>
       </c>
       <c r="L23">
-        <v>1.028586877639803</v>
+        <v>1.006018308449119</v>
       </c>
       <c r="M23">
-        <v>1.044684503809028</v>
+        <v>1.016692329512127</v>
       </c>
       <c r="N23">
-        <v>1.014367695022637</v>
+        <v>1.0074381602733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025541693509567</v>
+        <v>0.9861554298896273</v>
       </c>
       <c r="D24">
-        <v>1.033892584228685</v>
+        <v>1.002374863237635</v>
       </c>
       <c r="E24">
-        <v>1.025951964710553</v>
+        <v>0.9955602563849362</v>
       </c>
       <c r="F24">
-        <v>1.042313091903269</v>
+        <v>1.00740493567949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032203448611787</v>
+        <v>1.041318061012057</v>
       </c>
       <c r="J24">
-        <v>1.03180241865335</v>
+        <v>1.014197031687969</v>
       </c>
       <c r="K24">
-        <v>1.037270016344267</v>
+        <v>1.016360401578063</v>
       </c>
       <c r="L24">
-        <v>1.029357469058743</v>
+        <v>1.009665790087063</v>
       </c>
       <c r="M24">
-        <v>1.0456612696108</v>
+        <v>1.021303248383621</v>
       </c>
       <c r="N24">
-        <v>1.01460807985807</v>
+        <v>1.008619568614765</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026989387756291</v>
+        <v>0.9933613920586376</v>
       </c>
       <c r="D25">
-        <v>1.035179954797975</v>
+        <v>1.008313958159247</v>
       </c>
       <c r="E25">
-        <v>1.027173166480893</v>
+        <v>1.001174362747381</v>
       </c>
       <c r="F25">
-        <v>1.043768889758629</v>
+        <v>1.014088436789036</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032369671262171</v>
+        <v>1.042708130819823</v>
       </c>
       <c r="J25">
-        <v>1.032635763335673</v>
+        <v>1.018114256070784</v>
       </c>
       <c r="K25">
-        <v>1.038234433983243</v>
+        <v>1.020784567182169</v>
       </c>
       <c r="L25">
-        <v>1.030253056570069</v>
+        <v>1.013754475560348</v>
       </c>
       <c r="M25">
-        <v>1.046796583898486</v>
+        <v>1.026471914898816</v>
       </c>
       <c r="N25">
-        <v>1.01488686887458</v>
+        <v>1.009939842392483</v>
       </c>
     </row>
   </sheetData>
